--- a/data/trans_dic/P78C9_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P78C9_2023-Habitat-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -611,12 +611,12 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -634,19 +634,19 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>43,07; 100</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>43,07; 100</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -661,12 +661,12 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>50,78%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>50,78%</t>
         </is>
       </c>
     </row>
@@ -684,19 +684,19 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>43,07; 100</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>43,07; 100</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>54,84%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>54,84%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>43,07; 100</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -761,12 +761,12 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>73,81%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>80,65%</t>
         </is>
       </c>
     </row>
@@ -784,81 +784,30 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>13,78; 100,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>43,07; 100</t>
+          <t>20,33; 100,0</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>75,91%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>81,58%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>22,85; 100</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>12,83; 100,0</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>21,86; 100,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
